--- a/export/Mantel Test/Beta_02/main.xlsx
+++ b/export/Mantel Test/Beta_02/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Thesis-For-Master\export\Mantel Test\Beta_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5711C373-31BB-4543-9EFE-D747C9703810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6767CE2-4807-44E6-ADBE-1441910CA6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D-1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G24"/>
     </sheetView>
   </sheetViews>
@@ -2694,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFF03F6-6A16-4B05-9F97-40CD76284DDC}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:G72"/>
+    <sheetView topLeftCell="A46" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3919,49 +3919,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>0.76657299419517699</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>2.9166666666666698E-2</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>0.84448180189320199</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="3">
         <v>2.7777777777777801E-3</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3988,26 +3988,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>0.83141368910700697</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>1.38888888888889E-3</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4241,26 +4241,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>0.90996387855020799</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4849,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7D32E-DDFD-4C05-B600-1C334F026749}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:G72"/>
+    <sheetView topLeftCell="A40" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5936,26 +5936,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>0.47824433158704199</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6166,26 +6166,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>0.75498252353209305</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>8.3333333333333297E-3</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB3142F-A2E0-414E-9FE6-706DAC51501C}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B71" sqref="B71:G93"/>
     </sheetView>
   </sheetViews>
@@ -9162,8 +9162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694440A5-A482-44B5-8CED-08861D944342}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G86" sqref="B86:G86"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11503,7 +11503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC04683D-6173-46E4-B60C-2E8211DA582C}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
@@ -13660,8 +13660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B117D58-B50D-4D5F-969A-D5A37F98BB49}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15815,8 +15815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA4D513-4249-4B49-888C-FEE0A84288B7}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G93"/>
+    <sheetView topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17970,7 +17970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137B01EE-A2D9-4B48-9CC2-549A4882478C}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:G29"/>
     </sheetView>
   </sheetViews>
